--- a/PythonProject/test.xlsx
+++ b/PythonProject/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Python-code\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45259341-1C53-4660-9CE7-4C0542DF00E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C658EF64-8E6F-4DE5-8AE6-CC954CA9826A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,18 +74,6 @@
   </si>
   <si>
     <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,17 +423,8 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -462,7 +441,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -479,7 +458,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -496,7 +475,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -513,7 +492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -530,7 +509,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -547,7 +526,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
